--- a/HT-6/Optica BAC-19-Ficha técnica de la situación objetivo.xlsx
+++ b/HT-6/Optica BAC-19-Ficha técnica de la situación objetivo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4268B7-B686-BD41-970F-6845C92A297B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76542503-288F-D240-8352-D270087B9A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
@@ -190,7 +190,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +200,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,17 +268,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -592,15 +598,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -628,13 +634,13 @@
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="14">
         <v>46752</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -666,7 +672,7 @@
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="5">
@@ -694,7 +700,7 @@
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>0.3</v>
       </c>
       <c r="C10" s="7">
@@ -761,13 +767,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.15">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="10" t="s">

--- a/HT-6/Optica BAC-19-Ficha técnica de la situación objetivo.xlsx
+++ b/HT-6/Optica BAC-19-Ficha técnica de la situación objetivo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76542503-288F-D240-8352-D270087B9A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583B0140-5440-3F4C-86E5-A96AF4B8C5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>BAC-19 Ficha técnica de la situación objetivo</t>
   </si>
@@ -99,9 +99,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>500&gt;</t>
-  </si>
-  <si>
     <t>15% por canal</t>
   </si>
   <si>
@@ -148,6 +145,15 @@
   </si>
   <si>
     <t>Queremos que cada empleado venda al menos 4000 artículos al año.</t>
+  </si>
+  <si>
+    <t>&gt;500</t>
+  </si>
+  <si>
+    <t>OP-11</t>
+  </si>
+  <si>
+    <t>Queremos vender 10000 artículos mediante canales digitales en el último año</t>
   </si>
 </sst>
 </file>
@@ -210,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -233,13 +239,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -274,12 +291,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -596,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -607,7 +634,7 @@
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -634,11 +661,11 @@
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="15">
         <v>46752</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -651,7 +678,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
@@ -665,21 +692,21 @@
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="5">
         <v>786995000</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>25</v>
+      <c r="D8" s="19" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.15">
@@ -693,7 +720,7 @@
         <v>0.12</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.15">
@@ -707,7 +734,7 @@
         <v>0.04</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.15">
@@ -715,13 +742,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.15">
@@ -735,7 +762,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.15">
@@ -743,13 +770,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.15">
@@ -763,26 +790,26 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="9">
         <v>4000</v>
@@ -791,7 +818,21 @@
         <v>40</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="17">
+        <v>100000</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/HT-6/Optica BAC-19-Ficha técnica de la situación objetivo.xlsx
+++ b/HT-6/Optica BAC-19-Ficha técnica de la situación objetivo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583B0140-5440-3F4C-86E5-A96AF4B8C5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DA138D-FAF2-BE48-BA98-DB568121C033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>BAC-19 Ficha técnica de la situación objetivo</t>
   </si>
@@ -78,9 +78,6 @@
     <t>OP-08</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>&lt;5%</t>
   </si>
   <si>
@@ -102,65 +99,24 @@
     <t>15% por canal</t>
   </si>
   <si>
-    <t>En lenguaje natural</t>
-  </si>
-  <si>
-    <t>Queremos tener 30 puntos de venta</t>
-  </si>
-  <si>
-    <t>Queremos aumentar nuestras ventas en un __%.</t>
-  </si>
-  <si>
-    <t>Queremos que menos del 5% de nuestros empleados dejen de trabajar con nosotros</t>
-  </si>
-  <si>
-    <t>Queremos retener el 30% de nuestros clientes</t>
-  </si>
-  <si>
-    <t>Queremos que el 15% de los prospectos que tienen algún contacto con nuestros medios se vuelvan clientes nuestros</t>
-  </si>
-  <si>
-    <t>Queremos llegar a ocupar más del 7% del mercado en el que estemos ubicados</t>
-  </si>
-  <si>
     <t>OP-09</t>
   </si>
   <si>
     <t>OP-10</t>
   </si>
   <si>
-    <t>Indeterminado</t>
-  </si>
-  <si>
-    <t>Dependiente de la demanda</t>
-  </si>
-  <si>
-    <t>Queremos que cada punto de venta nuevo venda más de 500 artículos en su primer año desde apertura</t>
-  </si>
-  <si>
-    <t>Queremos la aprobación de servicio del 60% de nuestra clientela.</t>
-  </si>
-  <si>
-    <t>Queremos tener certeza de la cantidad de monturas por referencia que tenemos, para tener un mercado por demanda con cambios de stock constantes</t>
-  </si>
-  <si>
-    <t>Queremos que cada empleado venda al menos 4000 artículos al año.</t>
-  </si>
-  <si>
     <t>&gt;500</t>
   </si>
   <si>
     <t>OP-11</t>
-  </si>
-  <si>
-    <t>Queremos vender 10000 artículos mediante canales digitales en el último año</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -211,12 +167,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -243,20 +199,36 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -266,50 +238,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda [0]" xfId="3" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -623,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -634,40 +597,38 @@
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>46752</v>
       </c>
       <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -675,169 +636,133 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="7">
         <v>30</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5">
-        <v>786995000</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="B8" s="13">
+        <v>2000000000</v>
+      </c>
+      <c r="C8" s="12">
+        <v>897000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9">
         <v>0.12</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="8">
         <v>0.3</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="10">
         <v>0.04</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="B12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="10">
         <v>0.6</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="9">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6">
         <v>4000</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="6">
         <v>40</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="17">
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="7">
         <v>100000</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="7">
         <v>0</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
